--- a/results/FrequencyTables/26538064_LTR-F.xlsx
+++ b/results/FrequencyTables/26538064_LTR-F.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0202020202020202</v>
+        <v>0.036036036036036</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="I2">
-        <v>0.0303030303030303</v>
+        <v>0.021021021021021</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0195195195195195</v>
       </c>
       <c r="L2">
-        <v>0.0101010101010101</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.021021021021021</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0315315315315315</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.99024024024024</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.989489489489489</v>
       </c>
       <c r="T2">
-        <v>0.0101010101010101</v>
+        <v>0.048048048048048</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.989489489489489</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.99024024024024</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.992492492492492</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.994744744744745</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.996996996996997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="L3">
-        <v>0.0202020202020202</v>
+        <v>0.018018018018018</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.996996996996997</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.984234234234234</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,46 +613,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.97979797979798</v>
+        <v>0.952702702702703</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="I4">
-        <v>0.96969696969697</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.96969696969697</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.963963963963964</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.987237237237237</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00825825825825826</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.994744744744745</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.978228228228228</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.992492492492492</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.991741741741742</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="T5">
-        <v>0.98989898989899</v>
+        <v>0.948198198198198</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00525525525525526</v>
       </c>
     </row>
   </sheetData>
